--- a/Archivos_extra/Tarea2.xlsx
+++ b/Archivos_extra/Tarea2.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Desktop\Uandes\8vo_semestre\Metodos constructivos\T2_MTC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e453337d7bb58d0d/Escritorio/Semestre VIII/Metodos y Tecnicas de Construccion/T2_MTC/T2_MTC/Archivos_extra/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D0E744-58D8-463C-B3AF-3F9BF4EE1DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:1_{F4D0E744-58D8-463C-B3AF-3F9BF4EE1DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BD98699-2488-498A-A483-4A51263F6632}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{34EA7DBA-2AF9-4D93-85E9-5C41DA91D398}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" firstSheet="1" activeTab="1" xr2:uid="{34EA7DBA-2AF9-4D93-85E9-5C41DA91D398}"/>
   </bookViews>
   <sheets>
     <sheet name="Cantidades de Obras" sheetId="2" r:id="rId1"/>
-    <sheet name="Precios Unitarios" sheetId="3" r:id="rId2"/>
+    <sheet name="Precios Partidas" sheetId="4" r:id="rId2"/>
+    <sheet name="Precios Unitarios" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="\0">#REF!</definedName>
@@ -921,7 +922,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="142">
   <si>
     <t>ÍTEM</t>
   </si>
@@ -1341,6 +1342,12 @@
   </si>
   <si>
     <t>Albañil</t>
+  </si>
+  <si>
+    <t>Total + IVA</t>
+  </si>
+  <si>
+    <t>Utilidades de 3%</t>
   </si>
 </sst>
 </file>
@@ -1441,7 +1448,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1666,6 +1673,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1673,7 +1689,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1770,6 +1786,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
@@ -2109,8 +2129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEEA5D8-FC52-4E8D-A39A-E5D285FA256C}">
   <dimension ref="B1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3537,10 +3557,963 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF79D911-B475-414E-964E-CDD2F48ED869}">
+  <dimension ref="B2:G48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="63.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="69" x14ac:dyDescent="0.3">
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="2:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5">
+        <v>423</v>
+      </c>
+      <c r="F4">
+        <v>3267</v>
+      </c>
+      <c r="G4" s="47">
+        <f>E4*F4</f>
+        <v>1381941</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5">
+        <v>18466</v>
+      </c>
+      <c r="F5">
+        <v>3267</v>
+      </c>
+      <c r="G5" s="47">
+        <f t="shared" ref="G5:G30" si="0">E5*F5</f>
+        <v>60328422</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="69" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="5">
+        <v>7022</v>
+      </c>
+      <c r="F6">
+        <v>20451</v>
+      </c>
+      <c r="G6" s="47">
+        <f>E6*F6</f>
+        <v>143606922</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="69" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2671</v>
+      </c>
+      <c r="F7">
+        <v>20451</v>
+      </c>
+      <c r="G7" s="47">
+        <f t="shared" si="0"/>
+        <v>54624621</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1994</v>
+      </c>
+      <c r="F8">
+        <v>20451</v>
+      </c>
+      <c r="G8" s="47">
+        <f t="shared" si="0"/>
+        <v>40779294</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2993</v>
+      </c>
+      <c r="F9">
+        <v>25971</v>
+      </c>
+      <c r="G9" s="47">
+        <f t="shared" si="0"/>
+        <v>77731203</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="69" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5">
+        <v>3082</v>
+      </c>
+      <c r="F10">
+        <v>20451</v>
+      </c>
+      <c r="G10" s="47">
+        <f t="shared" si="0"/>
+        <v>63029982</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1774</v>
+      </c>
+      <c r="F11">
+        <v>6595</v>
+      </c>
+      <c r="G11" s="47">
+        <f t="shared" si="0"/>
+        <v>11699530</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1541</v>
+      </c>
+      <c r="F12">
+        <v>6500</v>
+      </c>
+      <c r="G12" s="47">
+        <f t="shared" si="0"/>
+        <v>10016500</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="5">
+        <v>14536</v>
+      </c>
+      <c r="F13">
+        <v>7445</v>
+      </c>
+      <c r="G13" s="47">
+        <f t="shared" si="0"/>
+        <v>108220520</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="5">
+        <v>8850</v>
+      </c>
+      <c r="F14">
+        <v>7445</v>
+      </c>
+      <c r="G14" s="47">
+        <f t="shared" si="0"/>
+        <v>65888250</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1782</v>
+      </c>
+      <c r="F15">
+        <v>21183</v>
+      </c>
+      <c r="G15" s="47">
+        <f t="shared" si="0"/>
+        <v>37748106</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2907</v>
+      </c>
+      <c r="F16">
+        <v>21183</v>
+      </c>
+      <c r="G16" s="47">
+        <f t="shared" si="0"/>
+        <v>61578981</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="6">
+        <v>2180</v>
+      </c>
+      <c r="F17">
+        <v>107880</v>
+      </c>
+      <c r="G17" s="47">
+        <f>E17*F17</f>
+        <v>235178400</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1595</v>
+      </c>
+      <c r="F18">
+        <v>111860</v>
+      </c>
+      <c r="G18" s="47">
+        <f>E18*F18</f>
+        <v>178416700</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="5">
+        <v>808</v>
+      </c>
+      <c r="F19">
+        <v>107880</v>
+      </c>
+      <c r="G19" s="47">
+        <f t="shared" si="0"/>
+        <v>87167040</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="5">
+        <v>56</v>
+      </c>
+      <c r="F20">
+        <v>70036</v>
+      </c>
+      <c r="G20" s="47">
+        <f t="shared" si="0"/>
+        <v>3922016</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="69" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="5">
+        <v>109</v>
+      </c>
+      <c r="F21">
+        <v>107880</v>
+      </c>
+      <c r="G21" s="47">
+        <f t="shared" si="0"/>
+        <v>11758920</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="69" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="5">
+        <v>74</v>
+      </c>
+      <c r="F22">
+        <v>107880</v>
+      </c>
+      <c r="G22" s="47">
+        <f t="shared" si="0"/>
+        <v>7983120</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="5">
+        <v>390</v>
+      </c>
+      <c r="F23">
+        <v>107880</v>
+      </c>
+      <c r="G23" s="47">
+        <f t="shared" si="0"/>
+        <v>42073200</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="69" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="5">
+        <v>38552</v>
+      </c>
+      <c r="F24">
+        <v>1300</v>
+      </c>
+      <c r="G24" s="47">
+        <f t="shared" si="0"/>
+        <v>50117600</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="69" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="5">
+        <v>9323</v>
+      </c>
+      <c r="F25">
+        <v>1300</v>
+      </c>
+      <c r="G25" s="47">
+        <f t="shared" si="0"/>
+        <v>12119900</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="5">
+        <v>19076</v>
+      </c>
+      <c r="F26">
+        <v>1300</v>
+      </c>
+      <c r="G26" s="47">
+        <f t="shared" si="0"/>
+        <v>24798800</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="5">
+        <v>21668</v>
+      </c>
+      <c r="F27">
+        <v>1300</v>
+      </c>
+      <c r="G27" s="47">
+        <f t="shared" si="0"/>
+        <v>28168400</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="5">
+        <v>54</v>
+      </c>
+      <c r="F28">
+        <v>12500</v>
+      </c>
+      <c r="G28" s="47">
+        <f t="shared" si="0"/>
+        <v>675000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="5">
+        <v>42</v>
+      </c>
+      <c r="F29">
+        <v>6500</v>
+      </c>
+      <c r="G29" s="47">
+        <f t="shared" si="0"/>
+        <v>273000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1233</v>
+      </c>
+      <c r="F30">
+        <v>21247</v>
+      </c>
+      <c r="G30" s="47">
+        <f t="shared" si="0"/>
+        <v>26197551</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="11">
+        <v>2</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+    </row>
+    <row r="32" spans="2:7" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="7">
+        <v>527149</v>
+      </c>
+      <c r="F32">
+        <v>3250</v>
+      </c>
+      <c r="G32" s="47">
+        <f>E32*F32</f>
+        <v>1713234250</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="7">
+        <v>13897</v>
+      </c>
+      <c r="F33">
+        <v>6000</v>
+      </c>
+      <c r="G33" s="47">
+        <f t="shared" ref="G33:G45" si="1">E33*F33</f>
+        <v>83382000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="7">
+        <v>6918</v>
+      </c>
+      <c r="F34">
+        <v>24590</v>
+      </c>
+      <c r="G34" s="47">
+        <f t="shared" si="1"/>
+        <v>170113620</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="7">
+        <v>2006</v>
+      </c>
+      <c r="F35">
+        <v>30000</v>
+      </c>
+      <c r="G35" s="47">
+        <f t="shared" si="1"/>
+        <v>60180000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="7">
+        <v>527</v>
+      </c>
+      <c r="F36">
+        <v>60000</v>
+      </c>
+      <c r="G36" s="47">
+        <f t="shared" si="1"/>
+        <v>31620000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" s="7">
+        <v>29</v>
+      </c>
+      <c r="F37">
+        <v>700000</v>
+      </c>
+      <c r="G37" s="47">
+        <f t="shared" si="1"/>
+        <v>20300000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="7">
+        <v>29</v>
+      </c>
+      <c r="F38">
+        <v>300000</v>
+      </c>
+      <c r="G38" s="47">
+        <f t="shared" si="1"/>
+        <v>8700000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="69" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="7">
+        <v>709</v>
+      </c>
+      <c r="F39">
+        <v>179650</v>
+      </c>
+      <c r="G39" s="47">
+        <f t="shared" si="1"/>
+        <v>127371850</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="69" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="7">
+        <v>52</v>
+      </c>
+      <c r="F40">
+        <v>400000</v>
+      </c>
+      <c r="G40" s="47">
+        <f t="shared" si="1"/>
+        <v>20800000</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="7">
+        <v>32</v>
+      </c>
+      <c r="F41">
+        <v>300000</v>
+      </c>
+      <c r="G41" s="47">
+        <f t="shared" si="1"/>
+        <v>9600000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="7">
+        <v>19</v>
+      </c>
+      <c r="F42">
+        <v>300000</v>
+      </c>
+      <c r="G42" s="47">
+        <f t="shared" si="1"/>
+        <v>5700000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="7">
+        <v>21</v>
+      </c>
+      <c r="F43">
+        <v>300000</v>
+      </c>
+      <c r="G43" s="47">
+        <f t="shared" si="1"/>
+        <v>6300000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" s="7">
+        <v>216</v>
+      </c>
+      <c r="F44">
+        <v>50000</v>
+      </c>
+      <c r="G44" s="47">
+        <f t="shared" si="1"/>
+        <v>10800000</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" s="7">
+        <v>330</v>
+      </c>
+      <c r="F45">
+        <v>60000</v>
+      </c>
+      <c r="G45" s="47">
+        <f t="shared" si="1"/>
+        <v>19800000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F46" t="s">
+        <v>113</v>
+      </c>
+      <c r="G46" s="47">
+        <f>SUM(G4:G45)</f>
+        <v>3733385639</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F47" t="s">
+        <v>140</v>
+      </c>
+      <c r="G47" s="47">
+        <f>G46+G46*0.19</f>
+        <v>4442728910.4099998</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F48" t="s">
+        <v>141</v>
+      </c>
+      <c r="G48" s="47">
+        <f>G47*0.03</f>
+        <v>133281867.3123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF8E548-E6B1-4F74-A84D-3EE7E259C2AF}">
   <dimension ref="B1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>

--- a/Archivos_extra/Tarea2.xlsx
+++ b/Archivos_extra/Tarea2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e453337d7bb58d0d/Escritorio/Semestre VIII/Metodos y Tecnicas de Construccion/T2_MTC/T2_MTC/Archivos_extra/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:1_{F4D0E744-58D8-463C-B3AF-3F9BF4EE1DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BD98699-2488-498A-A483-4A51263F6632}"/>
+  <xr:revisionPtr revIDLastSave="156" documentId="13_ncr:1_{F4D0E744-58D8-463C-B3AF-3F9BF4EE1DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CAD099D-4111-4C7D-997F-21A77EAB0B8D}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" firstSheet="1" activeTab="1" xr2:uid="{34EA7DBA-2AF9-4D93-85E9-5C41DA91D398}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="1" xr2:uid="{34EA7DBA-2AF9-4D93-85E9-5C41DA91D398}"/>
   </bookViews>
   <sheets>
     <sheet name="Cantidades de Obras" sheetId="2" r:id="rId1"/>
@@ -922,7 +922,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="152">
   <si>
     <t>ÍTEM</t>
   </si>
@@ -1348,16 +1348,48 @@
   </si>
   <si>
     <t>Utilidades de 3%</t>
+  </si>
+  <si>
+    <t>IPC ene</t>
+  </si>
+  <si>
+    <t>IPC oct</t>
+  </si>
+  <si>
+    <t>Relacion</t>
+  </si>
+  <si>
+    <t>Reajuste 15%</t>
+  </si>
+  <si>
+    <t>Reajuste 35%</t>
+  </si>
+  <si>
+    <t>valor 15%</t>
+  </si>
+  <si>
+    <t>valor 35%</t>
+  </si>
+  <si>
+    <t>valor reajustado 15%</t>
+  </si>
+  <si>
+    <t>valor reajustado 35%</t>
+  </si>
+  <si>
+    <t>Gastos Generales del 10%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="172" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;???_ ;_ @_ "/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1689,7 +1721,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1790,6 +1822,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
@@ -3558,21 +3592,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF79D911-B475-414E-964E-CDD2F48ED869}">
-  <dimension ref="B2:G48"/>
+  <dimension ref="B2:M49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="B2" sqref="B2:G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="63.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="63.77734375" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="17.33203125" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
@@ -3592,7 +3630,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="69" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="11">
         <v>1</v>
       </c>
@@ -3604,7 +3642,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
     </row>
-    <row r="4" spans="2:7" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -3618,14 +3656,14 @@
         <v>423</v>
       </c>
       <c r="F4">
-        <v>3267</v>
+        <v>7352</v>
       </c>
       <c r="G4" s="47">
         <f>E4*F4</f>
-        <v>1381941</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="41.4" x14ac:dyDescent="0.3">
+        <v>3109896</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -3639,14 +3677,14 @@
         <v>18466</v>
       </c>
       <c r="F5">
-        <v>3267</v>
+        <v>7352</v>
       </c>
       <c r="G5" s="47">
         <f t="shared" ref="G5:G30" si="0">E5*F5</f>
-        <v>60328422</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="69" x14ac:dyDescent="0.3">
+        <v>135762032</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
@@ -3660,14 +3698,14 @@
         <v>7022</v>
       </c>
       <c r="F6">
-        <v>20451</v>
+        <v>88378</v>
       </c>
       <c r="G6" s="47">
         <f>E6*F6</f>
-        <v>143606922</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="69" x14ac:dyDescent="0.3">
+        <v>620590316</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
@@ -3681,14 +3719,14 @@
         <v>2671</v>
       </c>
       <c r="F7">
-        <v>20451</v>
+        <v>76458</v>
       </c>
       <c r="G7" s="47">
         <f t="shared" si="0"/>
-        <v>54624621</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="82.8" x14ac:dyDescent="0.3">
+        <v>204219318</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
@@ -3709,7 +3747,7 @@
         <v>40779294</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -3730,7 +3768,7 @@
         <v>77731203</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="69" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
@@ -3751,7 +3789,7 @@
         <v>63029982</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
@@ -3772,7 +3810,7 @@
         <v>11699530</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
@@ -3793,7 +3831,7 @@
         <v>10016500</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
@@ -3814,7 +3852,7 @@
         <v>108220520</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
@@ -3835,7 +3873,7 @@
         <v>65888250</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
@@ -3856,7 +3894,7 @@
         <v>37748106</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
@@ -3877,7 +3915,7 @@
         <v>61578981</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
@@ -3898,7 +3936,7 @@
         <v>235178400</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>33</v>
       </c>
@@ -3919,7 +3957,7 @@
         <v>178416700</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>35</v>
       </c>
@@ -3940,7 +3978,7 @@
         <v>87167040</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>37</v>
       </c>
@@ -3961,7 +3999,7 @@
         <v>3922016</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="69" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>39</v>
       </c>
@@ -3982,7 +4020,7 @@
         <v>11758920</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="69" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
@@ -4003,7 +4041,7 @@
         <v>7983120</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>43</v>
       </c>
@@ -4023,8 +4061,14 @@
         <f t="shared" si="0"/>
         <v>42073200</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" ht="69" x14ac:dyDescent="0.3">
+      <c r="L23" t="s">
+        <v>142</v>
+      </c>
+      <c r="M23">
+        <v>102.72</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>45</v>
       </c>
@@ -4038,14 +4082,20 @@
         <v>38552</v>
       </c>
       <c r="F24">
-        <v>1300</v>
+        <v>1450</v>
       </c>
       <c r="G24" s="47">
         <f t="shared" si="0"/>
-        <v>50117600</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="69" x14ac:dyDescent="0.3">
+        <v>55900400</v>
+      </c>
+      <c r="L24" t="s">
+        <v>143</v>
+      </c>
+      <c r="M24">
+        <v>105.56</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>47</v>
       </c>
@@ -4059,14 +4109,14 @@
         <v>9323</v>
       </c>
       <c r="F25">
-        <v>1300</v>
+        <v>1450</v>
       </c>
       <c r="G25" s="47">
         <f t="shared" si="0"/>
-        <v>12119900</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="55.2" x14ac:dyDescent="0.3">
+        <v>13518350</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>50</v>
       </c>
@@ -4086,8 +4136,15 @@
         <f t="shared" si="0"/>
         <v>24798800</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="L26" t="s">
+        <v>144</v>
+      </c>
+      <c r="M26" s="48">
+        <f>(M24-M23)/M24</f>
+        <v>2.6904130352406245E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>52</v>
       </c>
@@ -4108,7 +4165,7 @@
         <v>28168400</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>54</v>
       </c>
@@ -4129,7 +4186,7 @@
         <v>675000</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>56</v>
       </c>
@@ -4149,8 +4206,15 @@
         <f t="shared" si="0"/>
         <v>273000</v>
       </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="L29" t="s">
+        <v>147</v>
+      </c>
+      <c r="M29" s="47">
+        <f>G46*0.15</f>
+        <v>796871331.75</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>58</v>
       </c>
@@ -4170,8 +4234,15 @@
         <f t="shared" si="0"/>
         <v>26197551</v>
       </c>
-    </row>
-    <row r="31" spans="2:7" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="L30" t="s">
+        <v>148</v>
+      </c>
+      <c r="M30" s="47">
+        <f>G46*0.35-M29</f>
+        <v>1062495109</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="11">
         <v>2</v>
       </c>
@@ -4183,7 +4254,7 @@
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" spans="2:7" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>63</v>
       </c>
@@ -4197,14 +4268,21 @@
         <v>527149</v>
       </c>
       <c r="F32">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="G32" s="47">
         <f>E32*F32</f>
-        <v>1713234250</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+        <v>2240383250</v>
+      </c>
+      <c r="L32" t="s">
+        <v>145</v>
+      </c>
+      <c r="M32" s="49">
+        <f>M29*M26</f>
+        <v>21439130.183497563</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>66</v>
       </c>
@@ -4224,8 +4302,15 @@
         <f t="shared" ref="G33:G45" si="1">E33*F33</f>
         <v>83382000</v>
       </c>
-    </row>
-    <row r="34" spans="2:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="L33" t="s">
+        <v>146</v>
+      </c>
+      <c r="M33" s="49">
+        <f>M30*M26</f>
+        <v>28585506.911330082</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>67</v>
       </c>
@@ -4246,7 +4331,7 @@
         <v>170113620</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>68</v>
       </c>
@@ -4260,14 +4345,14 @@
         <v>2006</v>
       </c>
       <c r="F35">
-        <v>30000</v>
+        <v>200000</v>
       </c>
       <c r="G35" s="47">
         <f t="shared" si="1"/>
-        <v>60180000</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="27.6" x14ac:dyDescent="0.3">
+        <v>401200000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>70</v>
       </c>
@@ -4287,8 +4372,15 @@
         <f t="shared" si="1"/>
         <v>31620000</v>
       </c>
-    </row>
-    <row r="37" spans="2:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="L36" t="s">
+        <v>149</v>
+      </c>
+      <c r="M36" s="47">
+        <f>M29+M32</f>
+        <v>818310461.93349755</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>72</v>
       </c>
@@ -4308,8 +4400,15 @@
         <f t="shared" si="1"/>
         <v>20300000</v>
       </c>
-    </row>
-    <row r="38" spans="2:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="L37" t="s">
+        <v>150</v>
+      </c>
+      <c r="M37" s="47">
+        <f>M30+M33</f>
+        <v>1091080615.91133</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
         <v>74</v>
       </c>
@@ -4330,7 +4429,7 @@
         <v>8700000</v>
       </c>
     </row>
-    <row r="39" spans="2:7" ht="69" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
         <v>76</v>
       </c>
@@ -4351,7 +4450,7 @@
         <v>127371850</v>
       </c>
     </row>
-    <row r="40" spans="2:7" ht="69" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
         <v>77</v>
       </c>
@@ -4372,7 +4471,7 @@
         <v>20800000</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
         <v>78</v>
       </c>
@@ -4393,7 +4492,7 @@
         <v>9600000</v>
       </c>
     </row>
-    <row r="42" spans="2:7" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
         <v>79</v>
       </c>
@@ -4414,7 +4513,7 @@
         <v>5700000</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
         <v>80</v>
       </c>
@@ -4435,7 +4534,7 @@
         <v>6300000</v>
       </c>
     </row>
-    <row r="44" spans="2:7" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
         <v>81</v>
       </c>
@@ -4456,7 +4555,7 @@
         <v>10800000</v>
       </c>
     </row>
-    <row r="45" spans="2:7" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="s">
         <v>82</v>
       </c>
@@ -4477,31 +4576,49 @@
         <v>19800000</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>113</v>
+      </c>
       <c r="F46" t="s">
         <v>113</v>
       </c>
       <c r="G46" s="47">
         <f>SUM(G4:G45)</f>
-        <v>3733385639</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+        <v>5312475545</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>140</v>
+      </c>
       <c r="F47" t="s">
         <v>140</v>
       </c>
       <c r="G47" s="47">
         <f>G46+G46*0.19</f>
-        <v>4442728910.4099998</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+        <v>6321845898.5500002</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>141</v>
+      </c>
       <c r="F48" t="s">
         <v>141</v>
       </c>
       <c r="G48" s="47">
         <f>G47*0.03</f>
-        <v>133281867.3123</v>
+        <v>189655376.95649999</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>151</v>
+      </c>
+      <c r="G49" s="47">
+        <f>0.1*G47</f>
+        <v>632184589.85500002</v>
       </c>
     </row>
   </sheetData>
@@ -4513,7 +4630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF8E548-E6B1-4F74-A84D-3EE7E259C2AF}">
   <dimension ref="B1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
